--- a/data/General Table for Screening/No history cotest with genotyping.xlsx
+++ b/data/General Table for Screening/No history cotest with genotyping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egemend2/Documents/Documents/Enduring Guidelines/Web Tool/new tables for the tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/druss/Downloads/new tables for the tool/General Table for Screening/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811BC7ED-3882-2A4A-AD01-A83E16624615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589ECCEF-271C-BA4C-AFA1-E5A364F97434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29820" yWindow="-980" windowWidth="28800" windowHeight="15560" xr2:uid="{1AC904FE-15A2-F44F-ADC1-49B15ABE3154}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{1AC904FE-15A2-F44F-ADC1-49B15ABE3154}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="125">
   <si>
     <t>PAST HISTORY (most recent)</t>
   </si>
@@ -68,75 +68,21 @@
     <t>CIN2+ Immediate risk (%)</t>
   </si>
   <si>
-    <t>SE immediate</t>
-  </si>
-  <si>
-    <t>LL95 immediate</t>
-  </si>
-  <si>
-    <t>UL95 immediate</t>
-  </si>
-  <si>
     <t>CIN2+ 1 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 1-year</t>
-  </si>
-  <si>
-    <t>LL95 1-year</t>
-  </si>
-  <si>
-    <t>UL95 1-year</t>
-  </si>
-  <si>
     <t>CIN2+ 2 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 2-year</t>
-  </si>
-  <si>
-    <t>LL95 2-year</t>
-  </si>
-  <si>
-    <t>UL95 2-year</t>
-  </si>
-  <si>
     <t>CIN2+ 3 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 3-year</t>
-  </si>
-  <si>
-    <t>LL95 3-year</t>
-  </si>
-  <si>
-    <t>UL95 3-year</t>
-  </si>
-  <si>
     <t>CIN2+ 4 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 4-year</t>
-  </si>
-  <si>
-    <t>LL95 4-year</t>
-  </si>
-  <si>
-    <t>UL95 4-year</t>
-  </si>
-  <si>
     <t>CIN2+ 5 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 5-year</t>
-  </si>
-  <si>
-    <t>LL95 5-year</t>
-  </si>
-  <si>
-    <t>UL95 5-year</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -248,12 +194,6 @@
     <t>Unweighted Number of CIN2+ Cases</t>
   </si>
   <si>
-    <t>UnweightedNumber of CIN3+ Cases</t>
-  </si>
-  <si>
-    <t>UnweightedNumber of Cancer Cases</t>
-  </si>
-  <si>
     <t>HPV16+</t>
   </si>
   <si>
@@ -273,6 +213,204 @@
   </si>
   <si>
     <t>HPV16/18-, Other+</t>
+  </si>
+  <si>
+    <t>CIN2+ SE immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 3-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 5-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 5-year</t>
+  </si>
+  <si>
+    <t>CANCER SE immediate</t>
+  </si>
+  <si>
+    <t>CANCER LL95 immediate</t>
+  </si>
+  <si>
+    <t>CANCER UL95 immediate</t>
+  </si>
+  <si>
+    <t>CANCER SE 1-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 1-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 1-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 2-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 2-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 2-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 3-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 3-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 3-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 4-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 4-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 4-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 5-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 5-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 5-year</t>
+  </si>
+  <si>
+    <t>Unweighted %</t>
+  </si>
+  <si>
+    <t>Unweighted CIN2+ Prevalence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN2+ Incidence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN2+ Unknown Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Number of CIN3+ Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN3+ Prevalence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN3+ Incidence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN3+ Unknown Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Number of Cancer Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Cancer Prevalence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Cancer Incidence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Cancer Unknown Cases</t>
   </si>
 </sst>
 </file>
@@ -772,10 +910,10 @@
   <dimension ref="A1:DD19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="BQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="DD1" sqref="A1:DD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -823,7 +961,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>5</v>
@@ -832,318 +970,318 @@
         <v>6</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="U1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AG1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AS1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="BI1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BL1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="BU1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CB1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV1" s="5" t="s">
+      <c r="CC1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CF1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AW1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="BA1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="CN1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BE1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BH1" s="4" t="s">
+      <c r="CO1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="BL1" s="5" t="s">
+      <c r="CP1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="BM1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="BP1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="BS1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BT1" s="5" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BU1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="BV1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="BW1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="BX1" s="4" t="s">
+      <c r="CR1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="CS1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BY1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BZ1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="CA1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="CB1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="CC1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="CD1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="CE1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="CF1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="CG1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="CH1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="CI1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="CJ1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="CK1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="CL1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="CM1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="CO1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="CP1" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="CQ1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="CR1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="CT1" s="9" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="CU1" s="9" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="CV1" s="9" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="CW1" s="2" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="CX1" s="9" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="CY1" s="9" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="CZ1" s="9" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="DA1" s="2" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="DB1" s="9" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="DC1" s="9" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="DD1" s="9" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E2" s="14">
         <v>15457.3953919492</v>
@@ -1387,7 +1525,7 @@
         <v>1.3702548007617299</v>
       </c>
       <c r="CN2" s="20" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="CO2" s="15">
         <v>0.98212222572581176</v>
@@ -1441,16 +1579,16 @@
     </row>
     <row r="3" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E3" s="14">
         <v>8071.5866290018803</v>
@@ -1694,7 +1832,7 @@
         <v>1.2823173109716399</v>
       </c>
       <c r="CN3" s="20" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="CO3" s="15">
         <v>0.99999997781912864</v>
@@ -1748,16 +1886,16 @@
     </row>
     <row r="4" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E4" s="14">
         <v>4392.9064952134304</v>
@@ -2001,7 +2139,7 @@
         <v>1.1244420815621701</v>
       </c>
       <c r="CN4" s="20" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="CO4" s="15">
         <v>0.99999988523575745</v>
@@ -2055,16 +2193,16 @@
     </row>
     <row r="5" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E5" s="14">
         <v>1653.2812107658499</v>
@@ -2308,7 +2446,7 @@
         <v>3.86840930689343</v>
       </c>
       <c r="CN5" s="16" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="CO5" s="15">
         <v>0.77918462431731106</v>
@@ -2362,16 +2500,16 @@
     </row>
     <row r="6" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E6" s="14">
         <v>523.29876804770902</v>
@@ -2615,7 +2753,7 @@
         <v>4.5239124775851201</v>
       </c>
       <c r="CN6" s="16" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="CO6" s="15">
         <v>0.92376824544998581</v>
@@ -2669,16 +2807,16 @@
     </row>
     <row r="7" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E7" s="14">
         <v>2387.76788096359</v>
@@ -2922,7 +3060,7 @@
         <v>14.171799553268499</v>
       </c>
       <c r="CN7" s="19" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="CO7" s="15">
         <v>0.5186751017217972</v>
@@ -2976,16 +3114,16 @@
     </row>
     <row r="8" spans="1:108" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E8" s="14">
         <v>5774.2166215473999</v>
@@ -3229,10 +3367,10 @@
         <v>1.1132017113789601</v>
       </c>
       <c r="CN8" s="20" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="CO8" s="15" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="CP8" s="11"/>
       <c r="CQ8" s="12">
@@ -3280,16 +3418,16 @@
     </row>
     <row r="9" spans="1:108" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E9" s="14">
         <v>2307.8939697112401</v>
@@ -3533,10 +3671,10 @@
         <v>0.825670171994205</v>
       </c>
       <c r="CN9" s="20" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="CO9" s="15" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="CP9" s="11"/>
       <c r="CQ9" s="12">
@@ -3584,16 +3722,16 @@
     </row>
     <row r="10" spans="1:108" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E10" s="14">
         <v>1428.45497881356</v>
@@ -3837,10 +3975,10 @@
         <v>1.3606901763695101</v>
       </c>
       <c r="CN10" s="20" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="CO10" s="15" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="CP10" s="11"/>
       <c r="CQ10" s="12">
@@ -3888,16 +4026,16 @@
     </row>
     <row r="11" spans="1:108" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E11" s="14">
         <v>348.34640811362198</v>
@@ -4141,7 +4279,7 @@
         <v>5.69992368950704</v>
       </c>
       <c r="CN11" s="20" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="CO11" s="15">
         <v>0.93114746616249877</v>
@@ -4195,16 +4333,16 @@
     </row>
     <row r="12" spans="1:108" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E12" s="14">
         <v>379.51828311362198</v>
@@ -4448,7 +4586,7 @@
         <v>25.6904584373837</v>
       </c>
       <c r="CN12" s="16" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="CO12" s="15">
         <v>0.82620413724598185</v>
@@ -4502,16 +4640,16 @@
     </row>
     <row r="13" spans="1:108" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E13" s="14">
         <v>627.72483129315799</v>
@@ -4755,7 +4893,7 @@
         <v>17.496881721890102</v>
       </c>
       <c r="CN13" s="16" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="CO13" s="15">
         <v>0.79521262356443845</v>
@@ -4809,16 +4947,16 @@
     </row>
     <row r="14" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E14" s="14">
         <v>2895.8711354362799</v>
@@ -4993,76 +5131,76 @@
         <v>2.7821669999999998</v>
       </c>
       <c r="BQ14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BR14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BS14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BT14" s="14">
         <v>2.7821669999999998</v>
       </c>
       <c r="BU14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BV14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BW14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BX14" s="14">
         <v>2.7821669999999998</v>
       </c>
       <c r="BY14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BZ14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CA14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CB14" s="14">
         <v>2.7821669999999998</v>
       </c>
       <c r="CC14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CD14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CE14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CF14" s="14">
         <v>2.7821669999999998</v>
       </c>
       <c r="CG14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CH14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CI14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CJ14" s="14">
         <v>2.7821669999999998</v>
       </c>
       <c r="CK14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CL14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CM14" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CN14" s="16" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="CO14" s="15">
         <v>0.99973290512015756</v>
@@ -5116,16 +5254,16 @@
     </row>
     <row r="15" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E15" s="14">
         <v>2540.1241564657898</v>
@@ -5300,76 +5438,76 @@
         <v>6.7623750000000002E-63</v>
       </c>
       <c r="BQ15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BR15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BS15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BT15" s="14">
         <v>6.7623750000000002E-63</v>
       </c>
       <c r="BU15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BV15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BW15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BX15" s="14">
         <v>6.7623750000000002E-63</v>
       </c>
       <c r="BY15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BZ15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CA15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CB15" s="14">
         <v>6.7623750000000002E-63</v>
       </c>
       <c r="CC15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CD15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CE15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CF15" s="14">
         <v>6.7623750000000002E-63</v>
       </c>
       <c r="CG15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CH15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CI15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CJ15" s="14">
         <v>6.7623750000000002E-63</v>
       </c>
       <c r="CK15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CL15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CM15" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CN15" s="20" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="CO15" s="15">
         <v>0.9994910682575634</v>
@@ -5423,16 +5561,16 @@
     </row>
     <row r="16" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E16" s="14">
         <v>1144.40049238858</v>
@@ -5607,76 +5745,76 @@
         <v>0.60558429999999996</v>
       </c>
       <c r="BQ16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BR16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BS16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BT16" s="14">
         <v>0.60558429999999996</v>
       </c>
       <c r="BU16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BV16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BW16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BX16" s="14">
         <v>0.60558429999999996</v>
       </c>
       <c r="BY16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BZ16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CA16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CB16" s="14">
         <v>0.60558429999999996</v>
       </c>
       <c r="CC16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CD16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CE16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CF16" s="14">
         <v>0.60558429999999996</v>
       </c>
       <c r="CG16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CH16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CI16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CJ16" s="14">
         <v>0.60558429999999996</v>
       </c>
       <c r="CK16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CL16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CM16" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CN16" s="20" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="CO16" s="15">
         <v>0.77959676919446608</v>
@@ -5730,16 +5868,16 @@
     </row>
     <row r="17" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E17" s="14">
         <v>11442.4466121312</v>
@@ -5914,76 +6052,76 @@
         <v>5.8989340000000001E-2</v>
       </c>
       <c r="BQ17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BR17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BS17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BT17" s="14">
         <v>5.8989340000000001E-2</v>
       </c>
       <c r="BU17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BV17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BW17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BX17" s="14">
         <v>5.8989340000000001E-2</v>
       </c>
       <c r="BY17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BZ17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CA17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CB17" s="14">
         <v>5.8989340000000001E-2</v>
       </c>
       <c r="CC17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CD17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CE17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CF17" s="14">
         <v>5.8989340000000001E-2</v>
       </c>
       <c r="CG17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CH17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CI17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CJ17" s="14">
         <v>5.8989340000000001E-2</v>
       </c>
       <c r="CK17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CL17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CM17" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CN17" s="18" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="CO17" s="15">
         <v>0.75886389357841111</v>
@@ -6037,16 +6175,16 @@
     </row>
     <row r="18" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E18" s="14">
         <v>18447.566384180798</v>
@@ -6221,76 +6359,76 @@
         <v>0.14358670000000001</v>
       </c>
       <c r="BQ18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BR18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BS18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BT18" s="14">
         <v>0.14358670000000001</v>
       </c>
       <c r="BU18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BV18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BW18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BX18" s="14">
         <v>0.14358670000000001</v>
       </c>
       <c r="BY18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BZ18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CA18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CB18" s="14">
         <v>0.14358670000000001</v>
       </c>
       <c r="CC18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CD18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CE18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CF18" s="14">
         <v>0.14358670000000001</v>
       </c>
       <c r="CG18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CH18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CI18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CJ18" s="14">
         <v>0.14358670000000001</v>
       </c>
       <c r="CK18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CL18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CM18" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CN18" s="18" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="CO18" s="15">
         <v>0.99982353061752105</v>
@@ -6344,16 +6482,16 @@
     </row>
     <row r="19" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E19" s="14">
         <v>46709.2424376177</v>
@@ -6528,76 +6666,76 @@
         <v>1.018964E-7</v>
       </c>
       <c r="BQ19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BR19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BS19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BT19" s="14">
         <v>1.379003E-2</v>
       </c>
       <c r="BU19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BV19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BW19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BX19" s="14">
         <v>3.4745400000000003E-2</v>
       </c>
       <c r="BY19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BZ19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CA19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CB19" s="14">
         <v>4.6696439999999999E-2</v>
       </c>
       <c r="CC19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CD19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CE19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CF19" s="14">
         <v>5.0364230000000003E-2</v>
       </c>
       <c r="CG19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CH19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CI19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CJ19" s="14">
         <v>5.087759E-2</v>
       </c>
       <c r="CK19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CL19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CM19" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CN19" s="18" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="CO19" s="15">
         <v>1</v>
